--- a/manipulating-test-case.xlsx
+++ b/manipulating-test-case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejaso\OneDrive - Seneca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317C4EAD-3764-483A-82EA-B0AF24B2EE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{543AE26B-8B8F-4E15-AA83-3CCC80F0FAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1028,7 +1028,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="75">
   <si>
     <t>Program
 or module:</t>
@@ -1254,6 +1254,43 @@
   </si>
   <si>
     <t>comparing strings that are a letter and  an number</t>
+  </si>
+  <si>
+    <t>Jason C
+Dec 3 2024</t>
+  </si>
+  <si>
+    <t>searching same strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '100' found at '0' position</t>
+  </si>
+  <si>
+    <t>searching with number</t>
+  </si>
+  <si>
+    <t>searching with empty strings</t>
+  </si>
+  <si>
+    <t>string &lt;ENTER&gt; substring &lt;ENTER&gt;</t>
+  </si>
+  <si>
+    <t>string (ex. 100) substring(ex. 100)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ' ' found at ' ' position</t>
+  </si>
+  <si>
+    <t>searching with subtring being empty</t>
+  </si>
+  <si>
+    <t>string(ex. 1) substring&lt;ENTER&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Not found</t>
+  </si>
+  <si>
+    <t>it should have said Not found</t>
   </si>
 </sst>
 </file>
@@ -2377,8 +2414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489FCF92-76BB-4101-9D49-11677A4362B7}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2662,7 +2699,7 @@
         <v>3</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -2689,22 +2726,66 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25"/>
+      <c r="A20" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="23"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
+      <c r="F20" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="23"/>
+      <c r="F21" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="23"/>
+      <c r="A22" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
